--- a/dev.xlsx
+++ b/dev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carinapeng/REG4COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC13331F-BC26-5448-9662-7A140CC81480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFED8B4-5DF0-694E-8272-AFF4635C6102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" xr2:uid="{BA055E0A-173D-1146-8A68-AF3C8480778D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Emergency Telecommunications</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Developed Countries</t>
+  </si>
+  <si>
+    <t>Level of Development</t>
   </si>
 </sst>
 </file>
@@ -469,14 +472,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CBFC3C-63B2-3647-AC43-6E4FC83EAAF1}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
